--- a/data/SystemMonitoring.xlsx
+++ b/data/SystemMonitoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12400" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12400" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="getYarnMetricsInfo" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="81">
   <si>
     <t>case_id</t>
   </si>
   <si>
+    <t>module</t>
+  </si>
+  <si>
     <t>interface</t>
   </si>
   <si>
@@ -83,7 +86,10 @@
     <t>res</t>
   </si>
   <si>
-    <t>getYarnMetricsInfo</t>
+    <t>系统监控</t>
+  </si>
+  <si>
+    <t>集群信息</t>
   </si>
   <si>
     <t>获取集群资源</t>
@@ -122,7 +128,7 @@
     <t>获取最近90天每日存储量</t>
   </si>
   <si>
-    <t>getEsNodeInfo</t>
+    <t>存储占比</t>
   </si>
   <si>
     <t>获取存储空间占比</t>
@@ -131,7 +137,7 @@
     <t>/nta/api/monitorClient/getEsNodeInfo</t>
   </si>
   <si>
-    <t>获取sensor信息</t>
+    <t>sensor信息</t>
   </si>
   <si>
     <t>获取sensor节点信息</t>
@@ -161,7 +167,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>getAllNt4Pm</t>
+    <t>获取网卡信息</t>
   </si>
   <si>
     <t>获取sensor网卡信息</t>
@@ -176,7 +182,7 @@
     <t>{"code":20000,"message":"请求成功!"}</t>
   </si>
   <si>
-    <t>系统监控</t>
+    <t>环境信息是否为集群</t>
   </si>
   <si>
     <t>获取环境信息</t>
@@ -191,6 +197,9 @@
     <t>$..flinkCluster</t>
   </si>
   <si>
+    <t>sensor流量图</t>
+  </si>
+  <si>
     <t>获取sensor实时镜像带宽图-最近5分钟</t>
   </si>
   <si>
@@ -233,6 +242,9 @@
     <t>24h</t>
   </si>
   <si>
+    <t>sensor协议流量图</t>
+  </si>
+  <si>
     <t>获取sensor实时协议流量带宽图-最近5分钟</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
   </si>
   <si>
     <t>获取sensor实时协议流量带宽图-最近24小时</t>
+  </si>
+  <si>
+    <t>应急处置状态</t>
   </si>
   <si>
     <t>获取应急处置开关状态</t>
@@ -1236,24 +1251,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="15.9090909090909" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" style="7" customWidth="1"/>
-    <col min="6" max="6" width="34.8181818181818" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.54545454545455" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43.2727272727273" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.9090909090909" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" style="7" customWidth="1"/>
+    <col min="7" max="7" width="34.8181818181818" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.54545454545455" style="7" customWidth="1"/>
+    <col min="10" max="10" width="43.2727272727273" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1299,35 +1314,41 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1340,27 +1361,27 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="6" max="6" width="44.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="37.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="14" max="14" width="25.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="7" max="7" width="44.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="37.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="15" max="15" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,37 +1427,43 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1448,28 +1475,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="15.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454" customWidth="1"/>
-    <col min="6" max="6" width="26.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="59" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="15.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="26.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="59" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,110 +1542,122 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1630,25 +1669,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="15.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="15.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1694,35 +1733,41 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1734,26 +1779,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="3" width="16.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" customWidth="1"/>
-    <col min="14" max="14" width="21.1818181818182" customWidth="1"/>
+    <col min="3" max="4" width="16.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
+    <col min="15" max="15" width="21.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,35 +1844,40 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>34</v>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1839,22 +1889,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="39.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="39.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1900,37 +1952,43 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1942,25 +2000,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="41.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="39.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="41.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="39.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2006,37 +2065,43 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2048,26 +2113,26 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.54545454545455" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="14" max="14" width="17.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="35.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="5.54545454545455" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="15" max="15" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2113,38 +2178,43 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2156,24 +2226,24 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.54545454545454" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="39.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="48.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="102.909090909091" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="14" max="14" width="17.3636363636364" customWidth="1"/>
+    <col min="1" max="2" width="8.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="39.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="48.3636363636364" customWidth="1"/>
+    <col min="9" max="9" width="102.909090909091" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="15" max="15" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2219,180 +2289,198 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2404,25 +2492,26 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="39.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="48.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="102.909090909091" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="39.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="48.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="102.909090909091" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2468,180 +2557,198 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
